--- a/DOCS/Веб-платформа управления изменениями/Рацпредложения_2020г..xlsx
+++ b/DOCS/Веб-платформа управления изменениями/Рацпредложения_2020г..xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bogdan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\Веб-платформа управления изменениями\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798C8061-A8A5-4E0B-9EC7-C38C49366C3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5AEACC1-0DD2-463E-9849-404361C8051E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,14 +31,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>внедренные</t>
   </si>
   <si>
-    <t>на дороботке</t>
-  </si>
-  <si>
     <t>отклонено</t>
   </si>
   <si>
@@ -61,13 +58,19 @@
   </si>
   <si>
     <t>сумма тенге</t>
+  </si>
+  <si>
+    <t>Подразделение</t>
+  </si>
+  <si>
+    <t>на доработке</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,8 +80,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -87,23 +96,6 @@
     <font>
       <b/>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -142,16 +134,85 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -166,7 +227,22 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -181,13 +257,11 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -203,144 +277,67 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -626,7 +623,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,117 +635,119 @@
     <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="B2" s="4">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4">
         <v>9</v>
       </c>
+      <c r="E2" s="4">
+        <v>19</v>
+      </c>
+      <c r="F2" s="5">
+        <v>6006500</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6">
-        <v>10</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6">
+      <c r="B3" s="2">
+        <v>26</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="2">
+        <v>26</v>
+      </c>
+      <c r="F3" s="6">
+        <v>1368000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2">
+        <v>12</v>
+      </c>
+      <c r="F4" s="6">
+        <v>566396</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="13">
         <v>9</v>
       </c>
-      <c r="E2" s="13">
-        <v>19</v>
-      </c>
-      <c r="F2" s="17">
-        <v>6006500</v>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="13">
+        <v>9</v>
+      </c>
+      <c r="F5" s="15">
+        <v>90000</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="6">
-        <v>26</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="13">
-        <v>26</v>
-      </c>
-      <c r="F3" s="17">
-        <v>1368000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="6">
-        <v>12</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="13">
-        <v>12</v>
-      </c>
-      <c r="F4" s="17">
-        <v>566396</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+    <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="11">
-        <v>9</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="14">
-        <v>9</v>
-      </c>
-      <c r="F5" s="17">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="10">
+      <c r="B6" s="17">
         <f t="shared" ref="B6:D6" si="0">SUM(B2:B5)</f>
         <v>57</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="17">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="17">
         <f>SUM(E2:E5)</f>
         <v>66</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="18">
         <f>F2+F3+F4+F5</f>
         <v>8030896</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C16" s="7"/>
+      <c r="C16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
